--- a/excel_data/ODE.xlsx
+++ b/excel_data/ODE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,39 +370,959 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
+        <v>0.1055997530618418</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5.04</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>0.2111995061236836</v>
       </c>
       <c r="B4">
-        <v>8.719999999999999</v>
+        <v>0.9990336710306149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>0.3167992591855254</v>
       </c>
       <c r="B5">
-        <v>13.04</v>
+        <v>0.9961358841861042</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4</v>
+        <v>0.4223990122473671</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>0.990346324793533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0.527998765309209</v>
+      </c>
+      <c r="B7">
+        <v>0.9807155886284522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0.6335985183710507</v>
+      </c>
+      <c r="B8">
+        <v>0.9663139295506784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0.7391982714328925</v>
+      </c>
+      <c r="B9">
+        <v>0.9462429699800541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>0.8447980244947343</v>
+      </c>
+      <c r="B10">
+        <v>0.9196508500206603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0.9503977775565761</v>
+      </c>
+      <c r="B11">
+        <v>0.8857514459302904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1.055997530618418</v>
+      </c>
+      <c r="B12">
+        <v>0.8438483849079362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.16159728368026</v>
+      </c>
+      <c r="B13">
+        <v>0.793364552096677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1.267197036742101</v>
+      </c>
+      <c r="B14">
+        <v>0.7338775403159592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1.372796789803943</v>
+      </c>
+      <c r="B15">
+        <v>0.6651609375849733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.478396542865785</v>
+      </c>
+      <c r="B16">
+        <v>0.5872304005796221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.583996295927627</v>
+      </c>
+      <c r="B17">
+        <v>0.5003920987476315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.689596048989469</v>
+      </c>
+      <c r="B18">
+        <v>0.4052894252577972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.79519580205131</v>
+      </c>
+      <c r="B19">
+        <v>0.3029421282337162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1.900795555113152</v>
+      </c>
+      <c r="B20">
+        <v>0.1947706994949093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2.006395308174994</v>
+      </c>
+      <c r="B21">
+        <v>0.08259860167072672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2.111995061236836</v>
+      </c>
+      <c r="B22">
+        <v>-0.03137368557996334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2.217594814298677</v>
+      </c>
+      <c r="B23">
+        <v>-0.1446255123881687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2.323194567360519</v>
+      </c>
+      <c r="B24">
+        <v>-0.2544016973878489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2.428794320422361</v>
+      </c>
+      <c r="B25">
+        <v>-0.3578196882343164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2.534394073484203</v>
+      </c>
+      <c r="B26">
+        <v>-0.4519870648786818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>2.639993826546045</v>
+      </c>
+      <c r="B27">
+        <v>-0.5341170078193073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2.745593579607887</v>
+      </c>
+      <c r="B28">
+        <v>-0.6016314753160379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2.851193332669728</v>
+      </c>
+      <c r="B29">
+        <v>-0.6522467248889811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2.95679308573157</v>
+      </c>
+      <c r="B30">
+        <v>-0.6840419874826584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3.062392838793412</v>
+      </c>
+      <c r="B31">
+        <v>-0.6955177311823237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>3.167992591855254</v>
+      </c>
+      <c r="B32">
+        <v>-0.6856534543691682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3.273592344917095</v>
+      </c>
+      <c r="B33">
+        <v>-0.6539752654415635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>3.379192097978937</v>
+      </c>
+      <c r="B34">
+        <v>-0.6006400718427077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3.484791851040779</v>
+      </c>
+      <c r="B35">
+        <v>-0.5265358862668256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>3.590391604102621</v>
+      </c>
+      <c r="B36">
+        <v>-0.4333871082028445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>3.695991357164463</v>
+      </c>
+      <c r="B37">
+        <v>-0.323841517637023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>3.801591110226304</v>
+      </c>
+      <c r="B38">
+        <v>-0.2015059806483206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>3.907190863288146</v>
+      </c>
+      <c r="B39">
+        <v>-0.07089610592588017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>4.012790616349988</v>
+      </c>
+      <c r="B40">
+        <v>0.0627236273448378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>4.11839036941183</v>
+      </c>
+      <c r="B41">
+        <v>0.1936079923235333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>4.223990122473672</v>
+      </c>
+      <c r="B42">
+        <v>0.3158753361720176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>4.329589875535513</v>
+      </c>
+      <c r="B43">
+        <v>0.4238729659053981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>4.435189628597355</v>
+      </c>
+      <c r="B44">
+        <v>0.5125054031155742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>4.540789381659197</v>
+      </c>
+      <c r="B45">
+        <v>0.5774866932816641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>4.646389134721039</v>
+      </c>
+      <c r="B46">
+        <v>0.6155102576359499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>4.75198888778288</v>
+      </c>
+      <c r="B47">
+        <v>0.6243597758711916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>4.857588640844722</v>
+      </c>
+      <c r="B48">
+        <v>0.6029999844213294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>4.963188393906564</v>
+      </c>
+      <c r="B49">
+        <v>0.5516820060171679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>5.068788146968406</v>
+      </c>
+      <c r="B50">
+        <v>0.4720752091293158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>5.174387900030248</v>
+      </c>
+      <c r="B51">
+        <v>0.367402359415366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>5.279987653092089</v>
+      </c>
+      <c r="B52">
+        <v>0.2425175218461735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>5.385587406153931</v>
+      </c>
+      <c r="B53">
+        <v>0.1038436627640904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>5.491187159215773</v>
+      </c>
+      <c r="B54">
+        <v>-0.04090112612008748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>5.596786912277615</v>
+      </c>
+      <c r="B55">
+        <v>-0.1832041527969576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>5.702386665339456</v>
+      </c>
+      <c r="B56">
+        <v>-0.3144188815170902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>5.807986418401298</v>
+      </c>
+      <c r="B57">
+        <v>-0.4264553665330243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>5.91358617146314</v>
+      </c>
+      <c r="B58">
+        <v>-0.5123655687007913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>6.019185924524982</v>
+      </c>
+      <c r="B59">
+        <v>-0.5667487457186157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>6.124785677586823</v>
+      </c>
+      <c r="B60">
+        <v>-0.5859882119796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>6.230385430648665</v>
+      </c>
+      <c r="B61">
+        <v>-0.5683929865764719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>6.335985183710507</v>
+      </c>
+      <c r="B62">
+        <v>-0.5143270003325511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>6.441584936772349</v>
+      </c>
+      <c r="B63">
+        <v>-0.4263643301721879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>6.54718468983419</v>
+      </c>
+      <c r="B64">
+        <v>-0.3094310433871093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>6.652784442896032</v>
+      </c>
+      <c r="B65">
+        <v>-0.170816286281742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>6.758384195957874</v>
+      </c>
+      <c r="B66">
+        <v>-0.01990332688953764</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>6.863983949019716</v>
+      </c>
+      <c r="B67">
+        <v>0.1324723579926859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>6.969583702081558</v>
+      </c>
+      <c r="B68">
+        <v>0.2749885744642637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>7.075183455143399</v>
+      </c>
+      <c r="B69">
+        <v>0.3969242345867374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>7.180783208205241</v>
+      </c>
+      <c r="B70">
+        <v>0.4891155769425557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>7.286382961267083</v>
+      </c>
+      <c r="B71">
+        <v>0.5446167514567317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>7.391982714328925</v>
+      </c>
+      <c r="B72">
+        <v>0.5590653486425783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>7.497582467390767</v>
+      </c>
+      <c r="B73">
+        <v>0.5308773463103782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>7.603182220452608</v>
+      </c>
+      <c r="B74">
+        <v>0.4614089663798946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>7.70878197351445</v>
+      </c>
+      <c r="B75">
+        <v>0.3551290935757885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>7.814381726576292</v>
+      </c>
+      <c r="B76">
+        <v>0.2196999528675586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>7.919981479638134</v>
+      </c>
+      <c r="B77">
+        <v>0.06575050694699031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>8.025581232699976</v>
+      </c>
+      <c r="B78">
+        <v>-0.09385785512932404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>8.131180985761818</v>
+      </c>
+      <c r="B79">
+        <v>-0.2452866138197141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>8.23678073882366</v>
+      </c>
+      <c r="B80">
+        <v>-0.3752426686909195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>8.342380491885502</v>
+      </c>
+      <c r="B81">
+        <v>-0.4723701170237044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>8.447980244947344</v>
+      </c>
+      <c r="B82">
+        <v>-0.5282191934694652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>8.553579998009186</v>
+      </c>
+      <c r="B83">
+        <v>-0.5377659264817096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>8.659179751071026</v>
+      </c>
+      <c r="B84">
+        <v>-0.4996666914849885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>8.764779504132868</v>
+      </c>
+      <c r="B85">
+        <v>-0.4164488377562921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>8.87037925719471</v>
+      </c>
+      <c r="B86">
+        <v>-0.2946743631349072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>8.975979010256552</v>
+      </c>
+      <c r="B87">
+        <v>-0.1448840245536665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>9.081578763318394</v>
+      </c>
+      <c r="B88">
+        <v>0.01899935808064449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>9.187178516380236</v>
+      </c>
+      <c r="B89">
+        <v>0.1810064630684125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>9.292778269442078</v>
+      </c>
+      <c r="B90">
+        <v>0.3250279608782023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>9.39837802250392</v>
+      </c>
+      <c r="B91">
+        <v>0.4367782351377958</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>9.50397777556576</v>
+      </c>
+      <c r="B92">
+        <v>0.5052931387091568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>9.609577528627602</v>
+      </c>
+      <c r="B93">
+        <v>0.5237779713028867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>9.715177281689444</v>
+      </c>
+      <c r="B94">
+        <v>0.4899952690677352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>9.820777034751286</v>
+      </c>
+      <c r="B95">
+        <v>0.4064909042127355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>9.926376787813128</v>
+      </c>
+      <c r="B96">
+        <v>0.2807592734526699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>10.03197654087497</v>
+      </c>
+      <c r="B97">
+        <v>0.1251169031664089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>10.13757629393681</v>
+      </c>
+      <c r="B98">
+        <v>-0.04413965570279146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>10.24317604699865</v>
+      </c>
+      <c r="B99">
+        <v>-0.2085316385393381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>10.3487758000605</v>
+      </c>
+      <c r="B100">
+        <v>-0.3498626611159638</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>10.45437555312234</v>
+      </c>
+      <c r="B101">
+        <v>-0.4526180380752918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>10.55997530618418</v>
+      </c>
+      <c r="B102">
+        <v>-0.5056544793235236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>10.66557505924602</v>
+      </c>
+      <c r="B103">
+        <v>-0.503065646396499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>10.77117481230786</v>
+      </c>
+      <c r="B104">
+        <v>-0.4445581676109626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>10.8767745653697</v>
+      </c>
+      <c r="B105">
+        <v>-0.3356757997963176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>10.98237431843155</v>
+      </c>
+      <c r="B106">
+        <v>-0.1878300780388648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>11.08797407149339</v>
+      </c>
+      <c r="B107">
+        <v>-0.01768318564257024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>11.19357382455523</v>
+      </c>
+      <c r="B108">
+        <v>0.1545958335356196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>11.29917357761707</v>
+      </c>
+      <c r="B109">
+        <v>0.3081310288848728</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>11.40477333067891</v>
+      </c>
+      <c r="B110">
+        <v>0.424400389369564</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>11.51037308374075</v>
+      </c>
+      <c r="B111">
+        <v>0.489599381094148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>11.6159728368026</v>
+      </c>
+      <c r="B112">
+        <v>0.4959327401177636</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>11.72157258986444</v>
+      </c>
+      <c r="B113">
+        <v>0.4421555570020551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>11.82717234292628</v>
+      </c>
+      <c r="B114">
+        <v>0.3338352926673035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>11.93277209598812</v>
+      </c>
+      <c r="B115">
+        <v>0.1833706925867464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>12.03837184904996</v>
+      </c>
+      <c r="B116">
+        <v>0.009243755033331746</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>12.14397160211181</v>
+      </c>
+      <c r="B117">
+        <v>-0.1660933150854189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>12.24957135517365</v>
+      </c>
+      <c r="B118">
+        <v>-0.3195961896674522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>12.35517110823549</v>
+      </c>
+      <c r="B119">
+        <v>-0.4312460409759033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>12.46077086129733</v>
+      </c>
+      <c r="B120">
+        <v>-0.4867327750083371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="B121">
+        <v>-0.4788364886226864</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/ODE.xlsx
+++ b/excel_data/ODE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,158 +373,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="B3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="B4">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="B5">
-        <v>0.7290000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="B6">
-        <v>0.6561000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="B7">
-        <v>0.5904900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="B8">
-        <v>0.5314410000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="B9">
-        <v>0.4782969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="B10">
-        <v>0.43046721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="B11">
-        <v>0.387420489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="B12">
-        <v>0.3486784401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1.157894736842105</v>
-      </c>
-      <c r="B13">
-        <v>0.31381059609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1.263157894736842</v>
-      </c>
-      <c r="B14">
-        <v>0.282429536481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1.368421052631579</v>
-      </c>
-      <c r="B15">
-        <v>0.2541865828329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1.473684210526316</v>
-      </c>
-      <c r="B16">
-        <v>0.22876792454961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1.578947368421053</v>
-      </c>
-      <c r="B17">
-        <v>0.205891132094649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1.684210526315789</v>
-      </c>
-      <c r="B18">
-        <v>0.1853020188851841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1.789473684210526</v>
-      </c>
-      <c r="B19">
-        <v>0.1667718169966657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1.894736842105263</v>
-      </c>
-      <c r="B20">
-        <v>0.1500946352969991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0.1350851717672992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
